--- a/biology/Médecine/Kyste_arachnoïdien/Kyste_arachnoïdien.xlsx
+++ b/biology/Médecine/Kyste_arachnoïdien/Kyste_arachnoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kyste_arachno%C3%AFdien</t>
+          <t>Kyste_arachnoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un kyste arachnoïdien est une malformation congénitale du système nerveux central constituée par un kyste dont l'enveloppe est faite de cellules arachnoïdiennes et le contenu de liquide céphalo-rachidien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kyste_arachno%C3%AFdien</t>
+          <t>Kyste_arachnoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus de la moitié se trouvent au niveau de la fosse temporale, avec une légère prédominance à gauche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de la moitié se trouvent au niveau de la fosse temporale, avec une légère prédominance à gauche.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kyste_arachno%C3%AFdien</t>
+          <t>Kyste_arachnoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont souvent asymptomatiques. Les signes dépendent de la taille et de la localisation du kyste. Ils peuvent ainsi se manifester par un déficit neurologique ou des signes d'hypertension intracrânienne. Ils peuvent se compliquer d'une hémorragie intrakystique[2] ou d'une rupture entraînant une hématome sous-dural[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont souvent asymptomatiques. Les signes dépendent de la taille et de la localisation du kyste. Ils peuvent ainsi se manifester par un déficit neurologique ou des signes d'hypertension intracrânienne. Ils peuvent se compliquer d'une hémorragie intrakystique ou d'une rupture entraînant une hématome sous-dural.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kyste_arachno%C3%AFdien</t>
+          <t>Kyste_arachnoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gros kystes symptomatiques peuvent être drainés, parfois par méthode neuroendoscopique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gros kystes symptomatiques peuvent être drainés, parfois par méthode neuroendoscopique.
 </t>
         </is>
       </c>
